--- a/2022-08-18 Prepare for UTSA/Sequencing Files.xlsx
+++ b/2022-08-18 Prepare for UTSA/Sequencing Files.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="287" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="60">
   <si>
     <t>Counts_List</t>
   </si>
@@ -35,7 +35,7 @@
     <t>Agg</t>
   </si>
   <si>
-    <t>Status</t>
+    <t>Status.counts</t>
   </si>
   <si>
     <t>Project</t>
@@ -83,18 +83,6 @@
     <t>STARR_026</t>
   </si>
   <si>
-    <t>STARR_028</t>
-  </si>
-  <si>
-    <t>STARR_031</t>
-  </si>
-  <si>
-    <t>STARR_032</t>
-  </si>
-  <si>
-    <t>STARR_039</t>
-  </si>
-  <si>
     <t>STARR_041</t>
   </si>
   <si>
@@ -189,9 +177,6 @@
   </si>
   <si>
     <t>no</t>
-  </si>
-  <si>
-    <t>Yes</t>
   </si>
   <si>
     <t>Original</t>
@@ -312,25 +297,25 @@
         <v>19</v>
       </c>
       <c r="F2" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="G2" t="s">
+        <v>54</v>
+      </c>
+      <c r="H2" t="s">
+        <v>55</v>
+      </c>
+      <c r="I2" t="s">
+        <v>56</v>
+      </c>
+      <c r="J2" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="K2" t="s">
+        <v>57</v>
+      </c>
+      <c r="L2" t="s">
         <v>58</v>
-      </c>
-      <c r="H2" t="s">
-        <v>60</v>
-      </c>
-      <c r="I2" t="s">
-        <v>61</v>
-      </c>
-      <c r="J2" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="K2" t="s">
-        <v>62</v>
-      </c>
-      <c r="L2" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="3">
@@ -350,25 +335,25 @@
         <v>19</v>
       </c>
       <c r="F3" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="G3" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="H3" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="I3" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="J3" t="e">
         <v>#N/A</v>
       </c>
       <c r="K3" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="L3" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
     </row>
     <row r="4">
@@ -394,19 +379,19 @@
         <v>#N/A</v>
       </c>
       <c r="H4" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="I4" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="J4" t="e">
         <v>#N/A</v>
       </c>
       <c r="K4" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="L4" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
     </row>
     <row r="5">
@@ -426,25 +411,25 @@
         <v>21</v>
       </c>
       <c r="F5" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="G5" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="H5" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="I5" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="J5" t="e">
         <v>#N/A</v>
       </c>
       <c r="K5" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="L5" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
     </row>
     <row r="6">
@@ -467,22 +452,22 @@
         <v>21</v>
       </c>
       <c r="G6" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="H6" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="I6" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="J6" t="e">
         <v>#N/A</v>
       </c>
       <c r="K6" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="L6" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
     </row>
     <row r="7">
@@ -505,22 +490,22 @@
         <v>22</v>
       </c>
       <c r="G7" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="H7" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="I7" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="J7" t="e">
         <v>#N/A</v>
       </c>
       <c r="K7" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="L7" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
     </row>
     <row r="8">
@@ -540,39 +525,39 @@
         <v>22</v>
       </c>
       <c r="F8" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="G8" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="H8" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="I8" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="J8" t="n">
         <v>2.0220624E7</v>
       </c>
       <c r="K8" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="L8" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>44.0</v>
+        <v>65.0</v>
       </c>
       <c r="B9" t="n">
-        <v>28.0</v>
+        <v>36.0</v>
       </c>
       <c r="C9" t="n">
-        <v>2.0191121E7</v>
+        <v>2.0210126E7</v>
       </c>
       <c r="D9" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E9" t="s">
         <v>23</v>
@@ -581,106 +566,106 @@
         <v>23</v>
       </c>
       <c r="G9" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="H9" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="I9" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="J9" t="e">
         <v>#N/A</v>
       </c>
       <c r="K9" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="L9" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>43.0</v>
+        <v>77.0</v>
       </c>
       <c r="B10" t="n">
-        <v>27.0</v>
+        <v>47.0</v>
       </c>
       <c r="C10" t="n">
-        <v>2.0191121E7</v>
+        <v>2.0210716E7</v>
       </c>
       <c r="D10" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E10" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F10" t="s">
-        <v>24</v>
+        <v>41</v>
       </c>
       <c r="G10" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="H10" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="I10" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="J10" t="e">
         <v>#N/A</v>
       </c>
       <c r="K10" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="L10" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>45.0</v>
+        <v>131.0</v>
       </c>
       <c r="B11" t="n">
-        <v>30.0</v>
+        <v>71.0</v>
       </c>
       <c r="C11" t="n">
-        <v>2.0191121E7</v>
+        <v>2.0220616E7</v>
       </c>
       <c r="D11" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E11" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F11" t="s">
-        <v>25</v>
+        <v>42</v>
       </c>
       <c r="G11" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="H11" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="I11" t="s">
-        <v>61</v>
-      </c>
-      <c r="J11" t="e">
-        <v>#N/A</v>
+        <v>56</v>
+      </c>
+      <c r="J11" t="n">
+        <v>2.0220624E7</v>
       </c>
       <c r="K11" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="L11" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>64.0</v>
+        <v>66.0</v>
       </c>
       <c r="B12" t="n">
-        <v>34.0</v>
+        <v>37.0</v>
       </c>
       <c r="C12" t="n">
         <v>2.0210126E7</v>
@@ -689,74 +674,74 @@
         <v>17</v>
       </c>
       <c r="E12" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="F12" t="s">
-        <v>26</v>
-      </c>
-      <c r="G12" t="e">
-        <v>#N/A</v>
+        <v>24</v>
+      </c>
+      <c r="G12" t="s">
+        <v>54</v>
       </c>
       <c r="H12" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="I12" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="J12" t="e">
         <v>#N/A</v>
       </c>
       <c r="K12" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="L12" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>65.0</v>
+        <v>132.0</v>
       </c>
       <c r="B13" t="n">
-        <v>36.0</v>
+        <v>72.0</v>
       </c>
       <c r="C13" t="n">
-        <v>2.0210126E7</v>
+        <v>2.0220616E7</v>
       </c>
       <c r="D13" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E13" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="F13" t="s">
-        <v>27</v>
+        <v>43</v>
       </c>
       <c r="G13" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="H13" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="I13" t="s">
-        <v>61</v>
-      </c>
-      <c r="J13" t="e">
-        <v>#N/A</v>
+        <v>56</v>
+      </c>
+      <c r="J13" t="n">
+        <v>2.0220624E7</v>
       </c>
       <c r="K13" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="L13" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>77.0</v>
+        <v>80.0</v>
       </c>
       <c r="B14" t="n">
-        <v>47.0</v>
+        <v>50.0</v>
       </c>
       <c r="C14" t="n">
         <v>2.0210716E7</v>
@@ -765,112 +750,112 @@
         <v>15</v>
       </c>
       <c r="E14" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="F14" t="s">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="G14" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="H14" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="I14" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="J14" t="e">
         <v>#N/A</v>
       </c>
       <c r="K14" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="L14" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>131.0</v>
+        <v>101.0</v>
       </c>
       <c r="B15" t="n">
-        <v>71.0</v>
+        <v>59.0</v>
       </c>
       <c r="C15" t="n">
-        <v>2.0220616E7</v>
+        <v>2.0211105E7</v>
       </c>
       <c r="D15" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E15" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="F15" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="G15" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="H15" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="I15" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="J15" t="n">
-        <v>2.0220624E7</v>
+        <v>2.0211117E7</v>
       </c>
       <c r="K15" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="L15" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>66.0</v>
+        <v>133.0</v>
       </c>
       <c r="B16" t="n">
-        <v>37.0</v>
+        <v>73.0</v>
       </c>
       <c r="C16" t="n">
-        <v>2.0210126E7</v>
+        <v>2.0220616E7</v>
       </c>
       <c r="D16" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E16" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="F16" t="s">
-        <v>28</v>
-      </c>
-      <c r="G16" t="s">
-        <v>58</v>
+        <v>26</v>
+      </c>
+      <c r="G16" t="e">
+        <v>#N/A</v>
       </c>
       <c r="H16" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="I16" t="s">
-        <v>61</v>
-      </c>
-      <c r="J16" t="e">
-        <v>#N/A</v>
+        <v>56</v>
+      </c>
+      <c r="J16" t="n">
+        <v>2.0220624E7</v>
       </c>
       <c r="K16" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="L16" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>132.0</v>
+        <v>134.0</v>
       </c>
       <c r="B17" t="n">
-        <v>72.0</v>
+        <v>74.0</v>
       </c>
       <c r="C17" t="n">
         <v>2.0220616E7</v>
@@ -879,188 +864,188 @@
         <v>16</v>
       </c>
       <c r="E17" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F17" t="s">
-        <v>47</v>
-      </c>
-      <c r="G17" t="s">
-        <v>58</v>
+        <v>27</v>
+      </c>
+      <c r="G17" t="e">
+        <v>#N/A</v>
       </c>
       <c r="H17" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="I17" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="J17" t="n">
         <v>2.0220624E7</v>
       </c>
       <c r="K17" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="L17" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>80.0</v>
+        <v>197.0</v>
       </c>
       <c r="B18" t="n">
-        <v>50.0</v>
+        <v>115.0</v>
       </c>
       <c r="C18" t="n">
-        <v>2.0210716E7</v>
+        <v>2.0220722E7</v>
       </c>
       <c r="D18" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E18" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="F18" t="s">
-        <v>29</v>
-      </c>
-      <c r="G18" t="s">
-        <v>58</v>
+        <v>45</v>
+      </c>
+      <c r="G18" t="e">
+        <v>#N/A</v>
       </c>
       <c r="H18" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="I18" t="s">
-        <v>61</v>
-      </c>
-      <c r="J18" t="e">
-        <v>#N/A</v>
+        <v>56</v>
+      </c>
+      <c r="J18" t="n">
+        <v>2.022072E7</v>
       </c>
       <c r="K18" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="L18" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>101.0</v>
+        <v>135.0</v>
       </c>
       <c r="B19" t="n">
-        <v>59.0</v>
+        <v>75.0</v>
       </c>
       <c r="C19" t="n">
-        <v>2.0211105E7</v>
+        <v>2.0220616E7</v>
       </c>
       <c r="D19" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E19" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F19" t="s">
-        <v>48</v>
-      </c>
-      <c r="G19" t="s">
-        <v>58</v>
+        <v>28</v>
+      </c>
+      <c r="G19" t="e">
+        <v>#N/A</v>
       </c>
       <c r="H19" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="I19" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="J19" t="n">
-        <v>2.0211117E7</v>
+        <v>2.0220624E7</v>
       </c>
       <c r="K19" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="L19" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>133.0</v>
+        <v>195.0</v>
       </c>
       <c r="B20" t="n">
-        <v>73.0</v>
+        <v>113.0</v>
       </c>
       <c r="C20" t="n">
-        <v>2.0220616E7</v>
+        <v>2.0220722E7</v>
       </c>
       <c r="D20" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E20" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F20" t="s">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="G20" t="e">
         <v>#N/A</v>
       </c>
       <c r="H20" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="I20" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="J20" t="n">
-        <v>2.0220624E7</v>
+        <v>2.022072E7</v>
       </c>
       <c r="K20" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="L20" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>134.0</v>
+        <v>146.0</v>
       </c>
       <c r="B21" t="n">
-        <v>74.0</v>
+        <v>86.0</v>
       </c>
       <c r="C21" t="n">
         <v>2.0220616E7</v>
       </c>
       <c r="D21" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E21" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F21" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G21" t="e">
         <v>#N/A</v>
       </c>
       <c r="H21" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="I21" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="J21" t="n">
         <v>2.0220624E7</v>
       </c>
       <c r="K21" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="L21" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>197.0</v>
+        <v>196.0</v>
       </c>
       <c r="B22" t="n">
-        <v>115.0</v>
+        <v>114.0</v>
       </c>
       <c r="C22" t="n">
         <v>2.0220722E7</v>
@@ -1069,112 +1054,112 @@
         <v>17</v>
       </c>
       <c r="E22" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F22" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="G22" t="e">
         <v>#N/A</v>
       </c>
       <c r="H22" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="I22" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="J22" t="n">
         <v>2.022072E7</v>
       </c>
       <c r="K22" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="L22" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>135.0</v>
+        <v>145.0</v>
       </c>
       <c r="B23" t="n">
-        <v>75.0</v>
+        <v>85.0</v>
       </c>
       <c r="C23" t="n">
         <v>2.0220616E7</v>
       </c>
       <c r="D23" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E23" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F23" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G23" t="e">
         <v>#N/A</v>
       </c>
       <c r="H23" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="I23" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="J23" t="n">
         <v>2.0220624E7</v>
       </c>
       <c r="K23" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="L23" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>195.0</v>
+        <v>201.0</v>
       </c>
       <c r="B24" t="n">
-        <v>113.0</v>
+        <v>119.0</v>
       </c>
       <c r="C24" t="n">
         <v>2.0220722E7</v>
       </c>
       <c r="D24" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E24" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F24" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="G24" t="e">
         <v>#N/A</v>
       </c>
       <c r="H24" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="I24" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="J24" t="n">
         <v>2.022072E7</v>
       </c>
       <c r="K24" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="L24" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>146.0</v>
+        <v>148.0</v>
       </c>
       <c r="B25" t="n">
-        <v>86.0</v>
+        <v>88.0</v>
       </c>
       <c r="C25" t="n">
         <v>2.0220616E7</v>
@@ -1183,36 +1168,36 @@
         <v>15</v>
       </c>
       <c r="E25" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F25" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G25" t="e">
         <v>#N/A</v>
       </c>
       <c r="H25" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="I25" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="J25" t="n">
         <v>2.0220624E7</v>
       </c>
       <c r="K25" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="L25" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>196.0</v>
+        <v>198.0</v>
       </c>
       <c r="B26" t="n">
-        <v>114.0</v>
+        <v>116.0</v>
       </c>
       <c r="C26" t="n">
         <v>2.0220722E7</v>
@@ -1221,74 +1206,74 @@
         <v>17</v>
       </c>
       <c r="E26" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F26" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="G26" t="e">
         <v>#N/A</v>
       </c>
       <c r="H26" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="I26" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="J26" t="n">
         <v>2.022072E7</v>
       </c>
       <c r="K26" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="L26" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>145.0</v>
+        <v>149.0</v>
       </c>
       <c r="B27" t="n">
-        <v>85.0</v>
+        <v>89.0</v>
       </c>
       <c r="C27" t="n">
         <v>2.0220616E7</v>
       </c>
       <c r="D27" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E27" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F27" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G27" t="e">
         <v>#N/A</v>
       </c>
       <c r="H27" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="I27" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="J27" t="n">
         <v>2.0220624E7</v>
       </c>
       <c r="K27" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="L27" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>201.0</v>
+        <v>203.0</v>
       </c>
       <c r="B28" t="n">
-        <v>119.0</v>
+        <v>121.0</v>
       </c>
       <c r="C28" t="n">
         <v>2.0220722E7</v>
@@ -1297,74 +1282,74 @@
         <v>18</v>
       </c>
       <c r="E28" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F28" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="G28" t="e">
         <v>#N/A</v>
       </c>
       <c r="H28" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="I28" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="J28" t="n">
         <v>2.022072E7</v>
       </c>
       <c r="K28" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="L28" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>148.0</v>
+        <v>150.0</v>
       </c>
       <c r="B29" t="n">
-        <v>88.0</v>
+        <v>90.0</v>
       </c>
       <c r="C29" t="n">
         <v>2.0220616E7</v>
       </c>
       <c r="D29" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E29" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F29" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G29" t="e">
         <v>#N/A</v>
       </c>
       <c r="H29" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="I29" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="J29" t="n">
         <v>2.0220624E7</v>
       </c>
       <c r="K29" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="L29" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>198.0</v>
+        <v>199.0</v>
       </c>
       <c r="B30" t="n">
-        <v>116.0</v>
+        <v>117.0</v>
       </c>
       <c r="C30" t="n">
         <v>2.0220722E7</v>
@@ -1373,36 +1358,36 @@
         <v>17</v>
       </c>
       <c r="E30" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F30" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="G30" t="e">
         <v>#N/A</v>
       </c>
       <c r="H30" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="I30" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="J30" t="n">
         <v>2.022072E7</v>
       </c>
       <c r="K30" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="L30" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>149.0</v>
+        <v>153.0</v>
       </c>
       <c r="B31" t="n">
-        <v>89.0</v>
+        <v>93.0</v>
       </c>
       <c r="C31" t="n">
         <v>2.0220616E7</v>
@@ -1411,294 +1396,142 @@
         <v>17</v>
       </c>
       <c r="E31" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F31" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G31" t="e">
         <v>#N/A</v>
       </c>
       <c r="H31" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="I31" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="J31" t="n">
         <v>2.0220624E7</v>
       </c>
       <c r="K31" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="L31" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>203.0</v>
+        <v>200.0</v>
       </c>
       <c r="B32" t="n">
-        <v>121.0</v>
+        <v>118.0</v>
       </c>
       <c r="C32" t="n">
         <v>2.0220722E7</v>
       </c>
       <c r="D32" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E32" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F32" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="G32" t="e">
         <v>#N/A</v>
       </c>
       <c r="H32" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="I32" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="J32" t="n">
         <v>2.022072E7</v>
       </c>
       <c r="K32" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="L32" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>150.0</v>
+        <v>181.0</v>
       </c>
       <c r="B33" t="n">
-        <v>90.0</v>
+        <v>99.0</v>
       </c>
       <c r="C33" t="n">
-        <v>2.0220616E7</v>
+        <v>2.0220715E7</v>
       </c>
       <c r="D33" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E33" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F33" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G33" t="e">
         <v>#N/A</v>
       </c>
       <c r="H33" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="I33" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="J33" t="n">
-        <v>2.0220624E7</v>
+        <v>2.022072E7</v>
       </c>
       <c r="K33" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="L33" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>199.0</v>
+        <v>189.0</v>
       </c>
       <c r="B34" t="n">
-        <v>117.0</v>
+        <v>107.0</v>
       </c>
       <c r="C34" t="n">
-        <v>2.0220722E7</v>
+        <v>2.0220718E7</v>
       </c>
       <c r="D34" t="s">
         <v>17</v>
       </c>
       <c r="E34" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F34" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="G34" t="e">
         <v>#N/A</v>
       </c>
       <c r="H34" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="I34" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="J34" t="n">
         <v>2.022072E7</v>
       </c>
       <c r="K34" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="L34" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="n">
-        <v>153.0</v>
-      </c>
-      <c r="B35" t="n">
-        <v>93.0</v>
-      </c>
-      <c r="C35" t="n">
-        <v>2.0220616E7</v>
-      </c>
-      <c r="D35" t="s">
-        <v>17</v>
-      </c>
-      <c r="E35" t="s">
-        <v>38</v>
-      </c>
-      <c r="F35" t="s">
-        <v>38</v>
-      </c>
-      <c r="G35" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H35" t="s">
-        <v>60</v>
-      </c>
-      <c r="I35" t="s">
-        <v>61</v>
-      </c>
-      <c r="J35" t="n">
-        <v>2.0220624E7</v>
-      </c>
-      <c r="K35" t="s">
-        <v>62</v>
-      </c>
-      <c r="L35" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="n">
-        <v>200.0</v>
-      </c>
-      <c r="B36" t="n">
-        <v>118.0</v>
-      </c>
-      <c r="C36" t="n">
-        <v>2.0220722E7</v>
-      </c>
-      <c r="D36" t="s">
-        <v>17</v>
-      </c>
-      <c r="E36" t="s">
-        <v>38</v>
-      </c>
-      <c r="F36" t="s">
-        <v>56</v>
-      </c>
-      <c r="G36" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H36" t="s">
-        <v>60</v>
-      </c>
-      <c r="I36" t="s">
-        <v>61</v>
-      </c>
-      <c r="J36" t="n">
-        <v>2.022072E7</v>
-      </c>
-      <c r="K36" t="s">
-        <v>62</v>
-      </c>
-      <c r="L36" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="n">
-        <v>181.0</v>
-      </c>
-      <c r="B37" t="n">
-        <v>99.0</v>
-      </c>
-      <c r="C37" t="n">
-        <v>2.0220715E7</v>
-      </c>
-      <c r="D37" t="s">
-        <v>18</v>
-      </c>
-      <c r="E37" t="s">
-        <v>39</v>
-      </c>
-      <c r="F37" t="s">
-        <v>39</v>
-      </c>
-      <c r="G37" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H37" t="s">
-        <v>60</v>
-      </c>
-      <c r="I37" t="s">
-        <v>61</v>
-      </c>
-      <c r="J37" t="n">
-        <v>2.022072E7</v>
-      </c>
-      <c r="K37" t="s">
-        <v>62</v>
-      </c>
-      <c r="L37" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="n">
-        <v>189.0</v>
-      </c>
-      <c r="B38" t="n">
-        <v>107.0</v>
-      </c>
-      <c r="C38" t="n">
-        <v>2.0220718E7</v>
-      </c>
-      <c r="D38" t="s">
-        <v>17</v>
-      </c>
-      <c r="E38" t="s">
-        <v>40</v>
-      </c>
-      <c r="F38" t="s">
-        <v>57</v>
-      </c>
-      <c r="G38" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H38" t="s">
-        <v>60</v>
-      </c>
-      <c r="I38" t="s">
-        <v>61</v>
-      </c>
-      <c r="J38" t="n">
-        <v>2.022072E7</v>
-      </c>
-      <c r="K38" t="s">
-        <v>62</v>
-      </c>
-      <c r="L38" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
     </row>
   </sheetData>
